--- a/tables/correction.xlsx
+++ b/tables/correction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uss\RS\CASA0023_Diary\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0252CF3C-9D69-4398-9153-59FD74213144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C5DF4-CAB9-4454-B00A-467D923B056A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5290" yWindow="460" windowWidth="15690" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,108 +67,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Corrected image</t>
+  </si>
+  <si>
+    <t>Removal of environmental attenuation:Atmospheric scattering and Topographic attenuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biophysical parameters required and the use of spectral signatures across time and space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removing distortions. making the pixels viewed at the nadir (straight down)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geographically aligned and topography removed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lλ = Bias + (Gain * DN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Corrects distortions caused by the sensor or satellites to align the image with the geographic coordinate system, ensuring spatial accuracy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Corrected image</t>
-  </si>
-  <si>
-    <t>Corrected image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The basis for subsequent georectification and Orthorectification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Removal of environmental attenuation:Atmospheric scattering and Topographic attenuation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biophysical parameters required and the use of spectral signatures across time and space.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top-of-atmosphere reflectance and Surface reflectance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removing distortions. making the pixels viewed at the nadir (straight down)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>different transformation types(linear, polynomial, Helmert…)</t>
+  </si>
+  <si>
+    <t>Pixel coordinates of the original image, GCPs（Ground Control Points, Pixel coordinates of the rectified (gold standard) map</t>
+  </si>
+  <si>
+    <t>DOS（Dark object subtraction, PIFs (Psuedo-invariant Features), Py6S, FLAASH, ACORN, QUAC, ATCOR
+Empirical Line Correction</t>
+  </si>
+  <si>
+    <t>radiance reflected above the surface , Atmospheric attenuation</t>
   </si>
   <si>
     <t>Cosine correction, Minnaert correction, Statistical Empirical correction, C Correction (advancing the Cosine)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>radiance, Sun's zenith angle, Sun's incidence angle
 slope angle (from DEM), slope aspect, solar zenith, solar azimuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geographically aligned and topography removed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Orthorectification Is a subset of georectification, useful for Precise Georeferencing and  High-Precision Measurement and Spatial Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Converts the digital value (DN) of an image into a physical sense of radiant brightness or reflectance, eliminating the effects of sensors, light sources, etc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DN, sensor information, Solar radiation information</t>
   </si>
   <si>
     <t>Often used as a first step in data pre-processing to provide a basis for subsequent atmospheric corrections, etc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lλ = Bias + (Gain * DN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>different transformation types(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>linear,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> polynomial, Helmert…)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOS（Dark object subtraction, PIFs (Psuedo-invariant Features), Py6S, FLAASH, ACORN, QUAC, ATCOR
-Empirical Line Correction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radiance reflected above the surface , Atmospheric attenuation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DN, sensor information, Solar radiation information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pixel coordinates of the original image, GCPs（Ground Control Points, Pixel coordinates of the rectified (gold standard) map</t>
+  </si>
+  <si>
+    <t>Top-of-atmosphere reflectance and Surface reflectance</t>
+  </si>
+  <si>
+    <t>corrected image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The basis for subsequent georectification and orthorectification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +479,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -553,19 +517,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="84" x14ac:dyDescent="0.3">
@@ -573,19 +537,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.3">
@@ -593,19 +557,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="98" x14ac:dyDescent="0.3">
@@ -613,19 +577,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
